--- a/Products.xlsx
+++ b/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\test123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1940689-3D6B-479D-A569-B76CF3EFBCC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CDE3D9-2BC7-4448-BD3E-55C987B834D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
